--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fgf16-Fgfr4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fgf16-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,6 +86,12 @@
   </si>
   <si>
     <t>Fgfr4</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -440,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -525,49 +534,483 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.551234201438917</v>
+        <v>0.09657300000000001</v>
       </c>
       <c r="H2">
-        <v>0.551234201438917</v>
+        <v>0.289719</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1488791629603479</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2078467214814188</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>10.6393093937211</v>
+        <v>0.3341516666666666</v>
       </c>
       <c r="N2">
-        <v>10.6393093937211</v>
+        <v>1.002455</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.02354483703663662</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.03467746452042096</v>
       </c>
       <c r="Q2">
-        <v>5.864751217509419</v>
+        <v>0.032270028905</v>
       </c>
       <c r="R2">
-        <v>5.864751217509419</v>
+        <v>0.290430260145</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.003505335630052258</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.007207597309857716</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.09657300000000001</v>
+      </c>
+      <c r="H3">
+        <v>0.289719</v>
+      </c>
+      <c r="I3">
+        <v>0.1488791629603479</v>
+      </c>
+      <c r="J3">
+        <v>0.2078467214814188</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
+        <v>0.153566</v>
+      </c>
+      <c r="N3">
+        <v>0.460698</v>
+      </c>
+      <c r="O3">
+        <v>0.01082049501783563</v>
+      </c>
+      <c r="P3">
+        <v>0.01593671391696275</v>
+      </c>
+      <c r="Q3">
+        <v>0.014830329318</v>
+      </c>
+      <c r="R3">
+        <v>0.133472963862</v>
+      </c>
+      <c r="S3">
+        <v>0.001610946241071984</v>
+      </c>
+      <c r="T3">
+        <v>0.003312393738828008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.09657300000000001</v>
+      </c>
+      <c r="H4">
+        <v>0.289719</v>
+      </c>
+      <c r="I4">
+        <v>0.1488791629603479</v>
+      </c>
+      <c r="J4">
+        <v>0.2078467214814188</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.03596566666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.107897</v>
+      </c>
+      <c r="O4">
+        <v>0.002534195830976933</v>
+      </c>
+      <c r="P4">
+        <v>0.003732431270590561</v>
+      </c>
+      <c r="Q4">
+        <v>0.003473312327</v>
+      </c>
+      <c r="R4">
+        <v>0.031259810943</v>
+      </c>
+      <c r="S4">
+        <v>0.0003772889540934491</v>
+      </c>
+      <c r="T4">
+        <v>0.0007757736027469742</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.09657300000000001</v>
+      </c>
+      <c r="H5">
+        <v>0.289719</v>
+      </c>
+      <c r="I5">
+        <v>0.1488791629603479</v>
+      </c>
+      <c r="J5">
+        <v>0.2078467214814188</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>13.6684585</v>
+      </c>
+      <c r="N5">
+        <v>27.336917</v>
+      </c>
+      <c r="O5">
+        <v>0.9631004721145509</v>
+      </c>
+      <c r="P5">
+        <v>0.9456533902920258</v>
+      </c>
+      <c r="Q5">
+        <v>1.3200040427205</v>
+      </c>
+      <c r="R5">
+        <v>7.920024256323</v>
+      </c>
+      <c r="S5">
+        <v>0.1433855921351302</v>
+      </c>
+      <c r="T5">
+        <v>0.1965509568299861</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.5520940000000001</v>
+      </c>
+      <c r="H6">
+        <v>1.104188</v>
+      </c>
+      <c r="I6">
+        <v>0.8511208370396521</v>
+      </c>
+      <c r="J6">
+        <v>0.7921532785185812</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.3341516666666666</v>
+      </c>
+      <c r="N6">
+        <v>1.002455</v>
+      </c>
+      <c r="O6">
+        <v>0.02354483703663662</v>
+      </c>
+      <c r="P6">
+        <v>0.03467746452042096</v>
+      </c>
+      <c r="Q6">
+        <v>0.1844831302566667</v>
+      </c>
+      <c r="R6">
+        <v>1.10689878154</v>
+      </c>
+      <c r="S6">
+        <v>0.02003950140658436</v>
+      </c>
+      <c r="T6">
+        <v>0.02746986721056324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.5520940000000001</v>
+      </c>
+      <c r="H7">
+        <v>1.104188</v>
+      </c>
+      <c r="I7">
+        <v>0.8511208370396521</v>
+      </c>
+      <c r="J7">
+        <v>0.7921532785185812</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.153566</v>
+      </c>
+      <c r="N7">
+        <v>0.460698</v>
+      </c>
+      <c r="O7">
+        <v>0.01082049501783563</v>
+      </c>
+      <c r="P7">
+        <v>0.01593671391696275</v>
+      </c>
+      <c r="Q7">
+        <v>0.08478286720400002</v>
+      </c>
+      <c r="R7">
+        <v>0.508697203224</v>
+      </c>
+      <c r="S7">
+        <v>0.00920954877676365</v>
+      </c>
+      <c r="T7">
+        <v>0.01262432017813475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.5520940000000001</v>
+      </c>
+      <c r="H8">
+        <v>1.104188</v>
+      </c>
+      <c r="I8">
+        <v>0.8511208370396521</v>
+      </c>
+      <c r="J8">
+        <v>0.7921532785185812</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.03596566666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.107897</v>
+      </c>
+      <c r="O8">
+        <v>0.002534195830976933</v>
+      </c>
+      <c r="P8">
+        <v>0.003732431270590561</v>
+      </c>
+      <c r="Q8">
+        <v>0.01985642877266667</v>
+      </c>
+      <c r="R8">
+        <v>0.119138572636</v>
+      </c>
+      <c r="S8">
+        <v>0.002156906876883484</v>
+      </c>
+      <c r="T8">
+        <v>0.002956657667843587</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.5520940000000001</v>
+      </c>
+      <c r="H9">
+        <v>1.104188</v>
+      </c>
+      <c r="I9">
+        <v>0.8511208370396521</v>
+      </c>
+      <c r="J9">
+        <v>0.7921532785185812</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>13.6684585</v>
+      </c>
+      <c r="N9">
+        <v>27.336917</v>
+      </c>
+      <c r="O9">
+        <v>0.9631004721145509</v>
+      </c>
+      <c r="P9">
+        <v>0.9456533902920258</v>
+      </c>
+      <c r="Q9">
+        <v>7.546273927099001</v>
+      </c>
+      <c r="R9">
+        <v>30.18509570839601</v>
+      </c>
+      <c r="S9">
+        <v>0.8197148799794207</v>
+      </c>
+      <c r="T9">
+        <v>0.7491024334620396</v>
       </c>
     </row>
   </sheetData>
